--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -113,10 +113,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -209,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,6 +245,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -542,12 +549,12 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="7" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
     <col min="4" max="17" width="8.77734375" style="9" customWidth="1"/>
@@ -557,7 +564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -619,7 +626,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>44939</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -681,7 +688,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>44939</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -743,7 +750,7 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>44939</v>
       </c>
       <c r="B4" s="13" t="s">

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996"/>
+    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -245,10 +245,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -830,6 +830,8 @@
     <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
@@ -1063,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>날짜</t>
   </si>
@@ -819,22 +819,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,162 +845,103 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10">
+        <v>44939</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
+      <c r="D2" s="9">
+        <v>7340</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3350</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44939</v>
+      </c>
+      <c r="G2" s="9">
+        <v>8260</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
+        <v>44939</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="D3" s="9">
+        <v>16000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>9330</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44939</v>
+      </c>
+      <c r="G3" s="9">
+        <v>20200</v>
+      </c>
+      <c r="H3" s="9">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>44939</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="10">
-        <v>44939</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>7340</v>
-      </c>
-      <c r="E3">
-        <v>3350</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>8260</v>
-      </c>
-      <c r="H3">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="10">
-        <v>44939</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>16000</v>
-      </c>
-      <c r="E4">
-        <v>9330</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>20200</v>
-      </c>
-      <c r="H4">
-        <v>9330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="10">
-        <v>44939</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+      <c r="D4" s="9">
         <v>52400</v>
       </c>
-      <c r="E5">
+      <c r="E4" s="9">
         <v>27100</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
+      <c r="F4" s="10">
+        <v>44939</v>
+      </c>
+      <c r="G4" s="9">
         <v>55000</v>
       </c>
-      <c r="H5">
+      <c r="H4" s="9">
         <v>27100</v>
       </c>
     </row>
@@ -1065,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -548,9 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
@@ -573,7 +571,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6">
@@ -635,46 +633,46 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>7340</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>3389.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>3629.3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <v>3908.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>4187.8999999999996</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="9">
         <v>4347.5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <v>4874.18</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>5345</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>5815.82</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="9">
         <v>6669.68</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <v>7340</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="9">
         <v>8864.18</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <v>9845.7199999999993</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="9">
         <v>11330</v>
       </c>
       <c r="R2" t="s">
@@ -697,46 +695,46 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>16000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>9396.7000000000007</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>9796.9</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>10263.799999999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>10730.7</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <v>10997.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <v>11877.94</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <v>12665</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="9">
         <v>13452.06</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="9">
         <v>14879.44</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="9">
         <v>16000</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="9">
         <v>18547.939999999999</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="9">
         <v>20188.759999999998</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="9">
         <v>22670</v>
       </c>
       <c r="R3" t="s">
@@ -759,46 +757,46 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>52400</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>27353</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>28871</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>30642</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>32413</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>33425</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>36764.6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>39750</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>42735.4</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <v>48149.599999999999</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <v>52400</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="9">
         <v>62064.6</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="9">
         <v>68288.399999999994</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <v>77700</v>
       </c>
       <c r="R4" t="s">
@@ -821,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -18,11 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,21 +141,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,8 +534,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="15" min="1" max="1"/>
-    <col width="7" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="11.44140625" customWidth="1" style="14" min="1" max="1"/>
+    <col width="7" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
     <col width="20.77734375" customWidth="1" min="3" max="3"/>
     <col width="8.77734375" customWidth="1" style="9" min="4" max="17"/>
     <col width="9" bestFit="1" customWidth="1" style="9" min="18" max="18"/>
@@ -541,12 +544,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>티커</t>
         </is>
@@ -617,206 +620,206 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="A2" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>278650</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>노터스</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>350</v>
+      </c>
+      <c r="G2" t="n">
+        <v>700</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3090</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4160</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6909</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8139</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>향후추가</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="16" t="n">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>071970</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>STX중공업</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D3" t="n">
         <v>7340</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>3389.9</v>
-      </c>
-      <c r="F2" s="9" t="n">
-        <v>3629.3</v>
-      </c>
-      <c r="G2" s="9" t="n">
-        <v>3908.6</v>
-      </c>
-      <c r="H2" s="9" t="n">
-        <v>4187.9</v>
-      </c>
-      <c r="I2" s="9" t="n">
-        <v>4347.5</v>
-      </c>
-      <c r="J2" s="9" t="n">
-        <v>4874.18</v>
-      </c>
-      <c r="K2" s="9" t="n">
+      <c r="E3" t="n">
+        <v>3389</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3629</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3908</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4187</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4347</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4874</v>
+      </c>
+      <c r="K3" t="n">
         <v>5345</v>
       </c>
-      <c r="L2" s="9" t="n">
-        <v>5815.82</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>6669.68</v>
-      </c>
-      <c r="N2" s="9" t="n">
+      <c r="L3" t="n">
+        <v>5815</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6669</v>
+      </c>
+      <c r="N3" t="n">
         <v>7340</v>
       </c>
-      <c r="O2" s="9" t="n">
-        <v>8864.18</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>9845.719999999999</v>
-      </c>
-      <c r="Q2" s="9" t="n">
+      <c r="O3" t="n">
+        <v>8864</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9845</v>
+      </c>
+      <c r="Q3" t="n">
         <v>11330</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>향후추가</t>
         </is>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>3350</v>
       </c>
-      <c r="T2" s="10" t="n">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="T3" s="16" t="n">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>023160</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>태광</t>
         </is>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D4" t="n">
         <v>16000</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>9396.700000000001</v>
-      </c>
-      <c r="F3" s="9" t="n">
-        <v>9796.9</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>10263.8</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>10730.7</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>10997.5</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>11877.94</v>
-      </c>
-      <c r="K3" s="9" t="n">
+      <c r="E4" t="n">
+        <v>9396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9796</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10263</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10730</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10997</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11877</v>
+      </c>
+      <c r="K4" t="n">
         <v>12665</v>
       </c>
-      <c r="L3" s="9" t="n">
-        <v>13452.06</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>14879.44</v>
-      </c>
-      <c r="N3" s="9" t="n">
+      <c r="L4" t="n">
+        <v>13452</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14879</v>
+      </c>
+      <c r="N4" t="n">
         <v>16000</v>
       </c>
-      <c r="O3" s="9" t="n">
-        <v>18547.94</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>20188.76</v>
-      </c>
-      <c r="Q3" s="9" t="n">
+      <c r="O4" t="n">
+        <v>18547</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20188</v>
+      </c>
+      <c r="Q4" t="n">
         <v>22670</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>향후추가</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>9330</v>
       </c>
-      <c r="T3" s="10" t="n">
-        <v>44939</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>000060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>메리츠화재</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>52400</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>27353</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>28871</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>30642</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>32413</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>33425</v>
-      </c>
-      <c r="J4" s="9" t="n">
-        <v>36764.6</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>39750</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>42735.4</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <v>48149.6</v>
-      </c>
-      <c r="N4" s="9" t="n">
-        <v>52400</v>
-      </c>
-      <c r="O4" s="9" t="n">
-        <v>62064.6</v>
-      </c>
-      <c r="P4" s="9" t="n">
-        <v>68288.39999999999</v>
-      </c>
-      <c r="Q4" s="9" t="n">
-        <v>77700</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>향후추가</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>27100</v>
-      </c>
-      <c r="T4" s="10" t="n">
+      <c r="T4" s="16" t="n">
         <v>44939</v>
       </c>
     </row>
@@ -894,55 +897,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>278650</t>
+          <t>054950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>노터스</t>
+          <t>제이브이엠</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5000</v>
+        <v>21300</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>13083</v>
       </c>
       <c r="F6" t="n">
-        <v>350</v>
+        <v>13581</v>
       </c>
       <c r="G6" t="n">
-        <v>700</v>
+        <v>14162</v>
       </c>
       <c r="H6" t="n">
-        <v>1050</v>
+        <v>14743</v>
       </c>
       <c r="I6" t="n">
-        <v>1250</v>
+        <v>15075</v>
       </c>
       <c r="J6" t="n">
-        <v>1910</v>
+        <v>16170</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>17150</v>
       </c>
       <c r="L6" t="n">
-        <v>3090</v>
+        <v>18129</v>
       </c>
       <c r="M6" t="n">
-        <v>4160</v>
+        <v>19905</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>21300</v>
       </c>
       <c r="O6" t="n">
-        <v>6909</v>
+        <v>24470</v>
       </c>
       <c r="P6" t="n">
-        <v>8139</v>
+        <v>26512</v>
       </c>
       <c r="Q6" t="n">
-        <v>10000</v>
+        <v>29600</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -950,9 +953,77 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="T6" s="16" t="n">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>22150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10221</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10944</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11787</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12631</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13113</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14703</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16125</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17547</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20125</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22150</v>
+      </c>
+      <c r="O7" t="n">
+        <v>26752</v>
+      </c>
+      <c r="P7" t="n">
+        <v>29716</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>34199</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>향후추가</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>10101</v>
+      </c>
+      <c r="T7" s="16" t="n">
         <v>44939</v>
       </c>
     </row>
@@ -968,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,93 +1110,93 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="16" t="n">
         <v>44939</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>278650</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>노터스</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43950</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>071970</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>STX중공업</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D3" t="n">
         <v>7340</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E3" t="n">
         <v>3350</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>44939</v>
-      </c>
-      <c r="G2" s="9" t="n">
+      <c r="F3" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G3" t="n">
         <v>8260</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H3" t="n">
         <v>3350</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="10" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>023160</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>태광</t>
         </is>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D4" t="n">
         <v>16000</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E4" t="n">
         <v>9330</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>44939</v>
-      </c>
-      <c r="G3" s="9" t="n">
+      <c r="F4" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G4" t="n">
         <v>20200</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H4" t="n">
         <v>9330</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000060</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>메리츠화재</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>52400</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>27100</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>44939</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>55000</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>27100</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1219,8 @@
       <c r="E5" t="n">
         <v>27100</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>최저가일</t>
-        </is>
+      <c r="F5" s="16" t="n">
+        <v>44939</v>
       </c>
       <c r="G5" t="n">
         <v>55000</v>
@@ -1166,30 +1235,58 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>278650</t>
+          <t>054950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>노터스</t>
+          <t>제이브이엠</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5000</v>
+        <v>21300</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>최저가일</t>
-        </is>
+        <v>13000</v>
+      </c>
+      <c r="F6" s="16" t="n">
+        <v>44939</v>
       </c>
       <c r="G6" t="n">
-        <v>43950</v>
+        <v>22550</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>22150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10101</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30650</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10101</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996"/>
+    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>날짜</t>
   </si>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1134,6 +1134,12 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14">
@@ -1160,6 +1166,12 @@
       <c r="H3">
         <v>3350</v>
       </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="14">
@@ -1186,6 +1198,12 @@
       <c r="H4">
         <v>9330</v>
       </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14">
@@ -1212,6 +1230,12 @@
       <c r="H5">
         <v>27100</v>
       </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14">
@@ -1238,6 +1262,12 @@
       <c r="H6">
         <v>13000</v>
       </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14">
@@ -1263,6 +1293,12 @@
       </c>
       <c r="H7">
         <v>10101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>날짜</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>PCT200</t>
+  </si>
+  <si>
+    <t>4계절 순환패턴 중 1</t>
+  </si>
+  <si>
+    <t>피보나치 비율 적용</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1167,10 +1173,10 @@
         <v>3350</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1199,10 +1205,10 @@
         <v>9330</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1231,10 +1237,10 @@
         <v>27100</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1263,10 +1269,10 @@
         <v>13000</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1295,10 +1301,10 @@
         <v>10101</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1185,6 +1185,74 @@
         <v>44939</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4975</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2252</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2417</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2610</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2802</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2912</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3275</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3924</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4513</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4975</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6025</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6702</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7725</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>향후추가</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>2225</v>
+      </c>
+      <c r="T10" s="15" t="n">
+        <v>44939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1197,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1565,6 +1633,36 @@
       </c>
       <c r="H9" t="n">
         <v>10101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4975</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2225</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>44939</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7700</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2225</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>날짜</t>
   </si>
@@ -142,9 +142,6 @@
     <t>피보나치 비율 적용</t>
   </si>
   <si>
-    <t>4계절 순환패턴 중 1</t>
-  </si>
-  <si>
     <t>매입일</t>
   </si>
   <si>
@@ -178,13 +175,37 @@
     <t>총매도액</t>
   </si>
   <si>
-    <t>4계절 순환패턴 중 2</t>
-  </si>
-  <si>
-    <t>4계절 순환패턴 중 3</t>
-  </si>
-  <si>
-    <t>4계절 순환패턴 중 4</t>
+    <t>이평120</t>
+  </si>
+  <si>
+    <t>이평120이격률</t>
+  </si>
+  <si>
+    <t>봄</t>
+  </si>
+  <si>
+    <t>여름1</t>
+  </si>
+  <si>
+    <t>여름2</t>
+  </si>
+  <si>
+    <t>여름3</t>
+  </si>
+  <si>
+    <t>여름4</t>
+  </si>
+  <si>
+    <t>여름5</t>
+  </si>
+  <si>
+    <t>여름6</t>
+  </si>
+  <si>
+    <t>여름7</t>
+  </si>
+  <si>
+    <t>여름8</t>
   </si>
 </sst>
 </file>
@@ -1269,9 +1290,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1281,11 +1304,11 @@
     <col min="4" max="5" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,14 +1333,20 @@
       <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="14">
         <v>44939</v>
       </c>
@@ -1342,14 +1371,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="14">
         <v>44939</v>
       </c>
@@ -1374,14 +1403,14 @@
       <c r="H3">
         <v>3350</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="14">
         <v>44939</v>
       </c>
@@ -1406,14 +1435,14 @@
       <c r="H4">
         <v>9330</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="14">
         <v>44939</v>
       </c>
@@ -1438,14 +1467,14 @@
       <c r="H5">
         <v>27100</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="14">
         <v>44939</v>
       </c>
@@ -1470,14 +1499,14 @@
       <c r="H6">
         <v>13000</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="14">
         <v>44939</v>
       </c>
@@ -1502,14 +1531,14 @@
       <c r="H7">
         <v>10101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="15">
         <v>44939</v>
       </c>
@@ -1534,14 +1563,14 @@
       <c r="H8">
         <v>10101</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="15">
         <v>44939</v>
       </c>
@@ -1566,14 +1595,14 @@
       <c r="H9">
         <v>10101</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="15">
         <v>44939</v>
       </c>
@@ -1598,11 +1627,11 @@
       <c r="H10">
         <v>2225</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="J10" t="s">
-        <v>55</v>
+      <c r="L10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1634,28 +1663,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1690,25 +1719,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="K1" s="4"/>
     </row>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -561,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,74 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>휴스틸</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4731</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4941</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5187</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5433</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5574</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6038</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6453</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6867</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7619</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8210</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9552</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10416</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11724</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11409</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4696</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1098,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,6 +1602,62 @@
         </is>
       </c>
       <c r="N7" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>휴스틸</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4696</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8210</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>8210</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5399</v>
+      </c>
+      <c r="L8" t="n">
+        <v>100.76</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>여름1</t>
         </is>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -139,7 +139,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,6 +193,7 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -561,10 +562,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -679,7 +680,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -747,7 +748,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -883,7 +884,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1151,6 +1152,1094 @@
       <c r="T8" t="inlineStr">
         <is>
           <t>2022-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>317850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>대모</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4693</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5527</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7472</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8028</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9862</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11502</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13142</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16115</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18450</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23757</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27176</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>32345</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4517</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4555</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세방</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>41250</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10114</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14203</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16404</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17662</v>
+      </c>
+      <c r="J10" t="n">
+        <v>21813</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25525</v>
+      </c>
+      <c r="L10" t="n">
+        <v>29236</v>
+      </c>
+      <c r="M10" t="n">
+        <v>35966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>41250</v>
+      </c>
+      <c r="O10" t="n">
+        <v>53263</v>
+      </c>
+      <c r="P10" t="n">
+        <v>61000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>72700</v>
+      </c>
+      <c r="R10" t="n">
+        <v>29734</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9800</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>069920</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>아이에스이커머스</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7540</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2645</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3215</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3880</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4545</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4925</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6179</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7300</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8421</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10454</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12050</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15678</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18016</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21550</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4186</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2550</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>오리콤</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4940</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5753</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6701</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7649</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8191</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9979</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11577</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13175</v>
+      </c>
+      <c r="M12" t="n">
+        <v>16074</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18350</v>
+      </c>
+      <c r="O12" t="n">
+        <v>23524</v>
+      </c>
+      <c r="P12" t="n">
+        <v>26856</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31895</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6265</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4805</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>322000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>52800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24262</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33586</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36250</v>
+      </c>
+      <c r="J13" t="n">
+        <v>45041</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52900</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60758</v>
+      </c>
+      <c r="M13" t="n">
+        <v>75011</v>
+      </c>
+      <c r="N13" t="n">
+        <v>86200</v>
+      </c>
+      <c r="O13" t="n">
+        <v>111641</v>
+      </c>
+      <c r="P13" t="n">
+        <v>128024</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>152800</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17550</v>
+      </c>
+      <c r="S13" t="n">
+        <v>19600</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>073570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>어반리튬</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15050</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4154</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5140</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6290</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7441</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8098</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10268</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12207</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17663</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20425</v>
+      </c>
+      <c r="O14" t="n">
+        <v>26703</v>
+      </c>
+      <c r="P14" t="n">
+        <v>30746</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>36860</v>
+      </c>
+      <c r="R14" t="n">
+        <v>996</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>053690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9864</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12230</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14990</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17750</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19327</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24532</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29185</v>
+      </c>
+      <c r="L15" t="n">
+        <v>33837</v>
+      </c>
+      <c r="M15" t="n">
+        <v>42275</v>
+      </c>
+      <c r="N15" t="n">
+        <v>48900</v>
+      </c>
+      <c r="O15" t="n">
+        <v>63962</v>
+      </c>
+      <c r="P15" t="n">
+        <v>73662</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>88330</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15431</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9470</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>한일사료</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4575</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1970</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2811</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3792</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4774</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7185</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10494</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13494</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15850</v>
+      </c>
+      <c r="O16" t="n">
+        <v>21205</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24654</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>29870</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1424</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1830</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>033100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>제룡전기</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4439</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4919</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5478</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6037</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6357</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7412</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8355</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9297</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11007</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12350</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15402</v>
+      </c>
+      <c r="P17" t="n">
+        <v>17367</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>20340</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2679</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4360</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>173130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>오파스넷</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8040</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3398</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3932</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4554</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5176</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5532</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6705</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7755</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8804</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10706</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12200</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15595</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17782</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>21090</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3446</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3310</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>267260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>40300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16036</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17755</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19761</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21766</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22912</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26694</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30075</v>
+      </c>
+      <c r="L19" t="n">
+        <v>33455</v>
+      </c>
+      <c r="M19" t="n">
+        <v>39586</v>
+      </c>
+      <c r="N19" t="n">
+        <v>44400</v>
+      </c>
+      <c r="O19" t="n">
+        <v>55344</v>
+      </c>
+      <c r="P19" t="n">
+        <v>62392</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>73050</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8990</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15750</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>214370</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>케어젠</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>131900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>51525</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58275</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66150</v>
+      </c>
+      <c r="H20" t="n">
+        <v>74025</v>
+      </c>
+      <c r="I20" t="n">
+        <v>78525</v>
+      </c>
+      <c r="J20" t="n">
+        <v>93375</v>
+      </c>
+      <c r="K20" t="n">
+        <v>106650</v>
+      </c>
+      <c r="L20" t="n">
+        <v>119925</v>
+      </c>
+      <c r="M20" t="n">
+        <v>144000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>162900</v>
+      </c>
+      <c r="O20" t="n">
+        <v>205875</v>
+      </c>
+      <c r="P20" t="n">
+        <v>233550</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>275400</v>
+      </c>
+      <c r="R20" t="n">
+        <v>27131</v>
+      </c>
+      <c r="S20" t="n">
+        <v>50400</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>179290</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>엠아이텍</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4381</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4991</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5703</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6415</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6822</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8164</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9365</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10565</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12741</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14450</v>
+      </c>
+      <c r="O21" t="n">
+        <v>18334</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20836</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>24620</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2512</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4280</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>177350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>베셀</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7920</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2915</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3429</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4029</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4629</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4972</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6103</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7115</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8126</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9960</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11400</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14673</v>
+      </c>
+      <c r="P22" t="n">
+        <v>16781</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>19970</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3476</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2830</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>058450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>일야</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E23" t="n">
+        <v>546</v>
+      </c>
+      <c r="F23" t="n">
+        <v>630</v>
+      </c>
+      <c r="G23" t="n">
+        <v>728</v>
+      </c>
+      <c r="H23" t="n">
+        <v>826</v>
+      </c>
+      <c r="I23" t="n">
+        <v>882</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1067</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1233</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1399</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1699</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1935</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2470</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2816</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3338</v>
+      </c>
+      <c r="R23" t="n">
+        <v>308</v>
+      </c>
+      <c r="S23" t="n">
+        <v>532</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>대창단조</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7780</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3513</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3893</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4337</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4781</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5035</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5871</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6620</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7368</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8724</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9790</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12211</v>
+      </c>
+      <c r="P24" t="n">
+        <v>13771</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>16130</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10183</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3450</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
         </is>
       </c>
     </row>
@@ -1166,7 +2255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,7 +2361,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1328,7 +2417,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1384,7 +2473,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1440,7 +2529,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1661,6 +2750,998 @@
         <is>
           <t>여름1</t>
         </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>317850</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>대모</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4555</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>18450</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>18450</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4555</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11052</v>
+      </c>
+      <c r="L9" t="n">
+        <v>116.71</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>10637</v>
+      </c>
+      <c r="P9" t="n">
+        <v>121.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>세방</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>41250</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>41250</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>41250</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19805</v>
+      </c>
+      <c r="L10" t="n">
+        <v>208.27</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>27667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>069920</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>아이에스이커머스</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7540</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12050</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>12050</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7470</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100.93</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>6160</v>
+      </c>
+      <c r="P11" t="n">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>오리콤</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4805</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>18350</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>18350</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4805</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8447</v>
+      </c>
+      <c r="L12" t="n">
+        <v>187.04</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>12540</v>
+      </c>
+      <c r="P12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>322000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>현대에너지솔루션</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>52800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19600</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>86200</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>86200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>19600</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58581</v>
+      </c>
+      <c r="L13" t="n">
+        <v>90.13</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>41000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>128.78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>073570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>어반리튬</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15050</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3990</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>20425</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>20425</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11744</v>
+      </c>
+      <c r="L14" t="n">
+        <v>128.14</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>12100</v>
+      </c>
+      <c r="P14" t="n">
+        <v>124.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>053690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33400</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>48900</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>48900</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26917</v>
+      </c>
+      <c r="L15" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>24150</v>
+      </c>
+      <c r="P15" t="n">
+        <v>138.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>한일사료</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4575</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>15850</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>15850</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5584</v>
+      </c>
+      <c r="L16" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>겨울</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>3575</v>
+      </c>
+      <c r="P16" t="n">
+        <v>127.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>033100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>제룡전기</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4360</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>12350</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>12350</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4360</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9595</v>
+      </c>
+      <c r="L17" t="n">
+        <v>107.35</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>8923</v>
+      </c>
+      <c r="P17" t="n">
+        <v>115.43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>173130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>오파스넷</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>8040</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3310</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12200</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>12200</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3310</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7098</v>
+      </c>
+      <c r="L18" t="n">
+        <v>113.27</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>6838</v>
+      </c>
+      <c r="P18" t="n">
+        <v>117.57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>267260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>40300</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15750</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>44400</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>44400</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15750</v>
+      </c>
+      <c r="K19" t="n">
+        <v>34962</v>
+      </c>
+      <c r="L19" t="n">
+        <v>115.27</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>34233</v>
+      </c>
+      <c r="P19" t="n">
+        <v>117.72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>214370</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>케어젠</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>131900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>50400</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>162900</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>162900</v>
+      </c>
+      <c r="J20" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K20" t="n">
+        <v>124720</v>
+      </c>
+      <c r="L20" t="n">
+        <v>105.76</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>111833</v>
+      </c>
+      <c r="P20" t="n">
+        <v>117.94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>179290</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>엠아이텍</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10650</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4280</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>14450</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>14450</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11683</v>
+      </c>
+      <c r="L21" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>9050</v>
+      </c>
+      <c r="P21" t="n">
+        <v>117.68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>177350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>베셀</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7920</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>11400</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>11400</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2830</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6474</v>
+      </c>
+      <c r="L22" t="n">
+        <v>122.33</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>6250</v>
+      </c>
+      <c r="P22" t="n">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>058450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>일야</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E23" t="n">
+        <v>532</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1935</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1935</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1066</v>
+      </c>
+      <c r="L23" t="n">
+        <v>130.32</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1277</v>
+      </c>
+      <c r="P23" t="n">
+        <v>108.88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>대창단조</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7780</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>9790</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>9790</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6504</v>
+      </c>
+      <c r="L24" t="n">
+        <v>119.61</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>6607</v>
+      </c>
+      <c r="P24" t="n">
+        <v>117.76</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -562,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
@@ -2243,6 +2243,890 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>휴스틸</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2424</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2775</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3184</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3593</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3827</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4598</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5288</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5977</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7228</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8210</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10442</v>
+      </c>
+      <c r="P25" t="n">
+        <v>11880</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>14054</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11409</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2366</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6290</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2780</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3561</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3982</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5015</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5725</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6434</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7720</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8730</v>
+      </c>
+      <c r="O26" t="n">
+        <v>11025</v>
+      </c>
+      <c r="P26" t="n">
+        <v>12504</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>14740</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6259</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2720</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2021-12-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>15450</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5356</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6887</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8418</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9293</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12181</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14762</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17343</v>
+      </c>
+      <c r="M27" t="n">
+        <v>22025</v>
+      </c>
+      <c r="N27" t="n">
+        <v>25700</v>
+      </c>
+      <c r="O27" t="n">
+        <v>34056</v>
+      </c>
+      <c r="P27" t="n">
+        <v>39437</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>47575</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10047</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3825</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>054930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>유신</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35050</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17843</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20501</v>
+      </c>
+      <c r="G28" t="n">
+        <v>23602</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26703</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28475</v>
+      </c>
+      <c r="J28" t="n">
+        <v>34322</v>
+      </c>
+      <c r="K28" t="n">
+        <v>39550</v>
+      </c>
+      <c r="L28" t="n">
+        <v>44777</v>
+      </c>
+      <c r="M28" t="n">
+        <v>54257</v>
+      </c>
+      <c r="N28" t="n">
+        <v>61700</v>
+      </c>
+      <c r="O28" t="n">
+        <v>78622</v>
+      </c>
+      <c r="P28" t="n">
+        <v>89520</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>106000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>27486</v>
+      </c>
+      <c r="S28" t="n">
+        <v>17400</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011700</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>한신기계</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7420</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2971</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3697</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4544</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5391</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7472</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8900</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10327</v>
+      </c>
+      <c r="M29" t="n">
+        <v>12917</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14950</v>
+      </c>
+      <c r="O29" t="n">
+        <v>19572</v>
+      </c>
+      <c r="P29" t="n">
+        <v>22548</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27050</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1955</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2850</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090710</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>휴림로봇</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2465</v>
+      </c>
+      <c r="E30" t="n">
+        <v>703</v>
+      </c>
+      <c r="F30" t="n">
+        <v>959</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1258</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1557</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1728</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2291</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2795</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3299</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4212</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4930</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6560</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7610</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9199</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1010</v>
+      </c>
+      <c r="S30" t="n">
+        <v>661</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2021-12-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014620</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>성광벤드</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7443</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8061</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8783</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9505</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9917</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11278</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12495</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13711</v>
+      </c>
+      <c r="M31" t="n">
+        <v>15917</v>
+      </c>
+      <c r="N31" t="n">
+        <v>17650</v>
+      </c>
+      <c r="O31" t="n">
+        <v>21588</v>
+      </c>
+      <c r="P31" t="n">
+        <v>24124</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>27960</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8154</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7340</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002900</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>TYM</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2640</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1424</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1569</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1738</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1907</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2003</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2322</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2607</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2892</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3409</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3815</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4737</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5331</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6230</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1495</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>179900</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>유티아이</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>23150</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10897</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12079</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13458</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14837</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15625</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18225</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20550</v>
+      </c>
+      <c r="L33" t="n">
+        <v>22874</v>
+      </c>
+      <c r="M33" t="n">
+        <v>27090</v>
+      </c>
+      <c r="N33" t="n">
+        <v>30400</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37925</v>
+      </c>
+      <c r="P33" t="n">
+        <v>42771</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>50100</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2515</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10700</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2021-11-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>041440</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>현대에버다임</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8410</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4530</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4925</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5386</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5847</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6111</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6980</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7757</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8534</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9943</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11050</v>
+      </c>
+      <c r="O34" t="n">
+        <v>13565</v>
+      </c>
+      <c r="P34" t="n">
+        <v>15185</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>17635</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4707</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4465</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>083650</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>비에이치아이</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7610</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3617</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4110</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4685</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5260</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5588</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6673</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7642</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8611</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10369</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11750</v>
+      </c>
+      <c r="O35" t="n">
+        <v>14888</v>
+      </c>
+      <c r="P35" t="n">
+        <v>16909</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19965</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1527</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3535</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>047810</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>49700</v>
+      </c>
+      <c r="E36" t="n">
+        <v>27220</v>
+      </c>
+      <c r="F36" t="n">
+        <v>29443</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32037</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34630</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36112</v>
+      </c>
+      <c r="J36" t="n">
+        <v>41003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>45375</v>
+      </c>
+      <c r="L36" t="n">
+        <v>49746</v>
+      </c>
+      <c r="M36" t="n">
+        <v>57675</v>
+      </c>
+      <c r="N36" t="n">
+        <v>63900</v>
+      </c>
+      <c r="O36" t="n">
+        <v>78053</v>
+      </c>
+      <c r="P36" t="n">
+        <v>87167</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>100950</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10884</v>
+      </c>
+      <c r="S36" t="n">
+        <v>26850</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>267270</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>현대건설기계</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E37" t="n">
+        <v>30360</v>
+      </c>
+      <c r="F37" t="n">
+        <v>32520</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35040</v>
+      </c>
+      <c r="H37" t="n">
+        <v>37560</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>43752</v>
+      </c>
+      <c r="K37" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>52248</v>
+      </c>
+      <c r="M37" t="n">
+        <v>59952</v>
+      </c>
+      <c r="N37" t="n">
+        <v>66000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>79752</v>
+      </c>
+      <c r="P37" t="n">
+        <v>88608</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>102000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>51516</v>
+      </c>
+      <c r="S37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2255,7 +3139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,6 +4626,812 @@
       </c>
       <c r="P24" t="n">
         <v>117.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>휴스틸</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8210</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>8210</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5399</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100.76</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>4386</v>
+      </c>
+      <c r="P25" t="n">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6290</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2720</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-12-02</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>8730</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>8730</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2880</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5336</v>
+      </c>
+      <c r="L26" t="n">
+        <v>117.87</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>4940</v>
+      </c>
+      <c r="P26" t="n">
+        <v>127.33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>095500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>미래나노텍</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>15450</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3825</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>25700</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>25700</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5420</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14940</v>
+      </c>
+      <c r="L27" t="n">
+        <v>103.41</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>12927</v>
+      </c>
+      <c r="P27" t="n">
+        <v>119.52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>054930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>유신</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35050</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17400</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>61700</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>61700</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15200</v>
+      </c>
+      <c r="K28" t="n">
+        <v>37139</v>
+      </c>
+      <c r="L28" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>28417</v>
+      </c>
+      <c r="P28" t="n">
+        <v>123.34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011700</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>한신기계</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7420</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>14950</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>14950</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2995</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7483</v>
+      </c>
+      <c r="L29" t="n">
+        <v>99.15000000000001</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>5820</v>
+      </c>
+      <c r="P29" t="n">
+        <v>127.49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090710</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>휴림로봇</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2465</v>
+      </c>
+      <c r="E30" t="n">
+        <v>661</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-12-07</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4930</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4930</v>
+      </c>
+      <c r="J30" t="n">
+        <v>750</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="L30" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>1727</v>
+      </c>
+      <c r="P30" t="n">
+        <v>142.76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014620</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>성광벤드</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>13100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7340</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>17650</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>17650</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7340</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14273</v>
+      </c>
+      <c r="L31" t="n">
+        <v>91.78</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>11443</v>
+      </c>
+      <c r="P31" t="n">
+        <v>114.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002900</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>TYM</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2640</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3815</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3815</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2441</v>
+      </c>
+      <c r="L32" t="n">
+        <v>108.13</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>2428</v>
+      </c>
+      <c r="P32" t="n">
+        <v>108.72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>179900</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>유티아이</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>23150</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10700</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-11-08</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>30400</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>30400</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11500</v>
+      </c>
+      <c r="K33" t="n">
+        <v>23455</v>
+      </c>
+      <c r="L33" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>21650</v>
+      </c>
+      <c r="P33" t="n">
+        <v>106.93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>041440</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>현대에버다임</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8410</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4465</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>11050</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>11050</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4465</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8205</v>
+      </c>
+      <c r="L34" t="n">
+        <v>102.49</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>7277</v>
+      </c>
+      <c r="P34" t="n">
+        <v>115.57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>083650</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>비에이치아이</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7610</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3535</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>11750</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>11750</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7408</v>
+      </c>
+      <c r="L35" t="n">
+        <v>102.72</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>6073</v>
+      </c>
+      <c r="P35" t="n">
+        <v>125.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>047810</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>한국항공우주</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>49700</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26850</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>63900</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>63900</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30750</v>
+      </c>
+      <c r="K36" t="n">
+        <v>50087</v>
+      </c>
+      <c r="L36" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>44350</v>
+      </c>
+      <c r="P36" t="n">
+        <v>112.06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>267270</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>현대건설기계</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>66000</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>66000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>46148</v>
+      </c>
+      <c r="L37" t="n">
+        <v>135.65</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>여름3</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>55117</v>
+      </c>
+      <c r="P37" t="n">
+        <v>113.58</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996"/>
+    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -3717,9 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -3829,7 +3827,7 @@
         <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O2">
         <v>10637</v>
@@ -3879,7 +3877,7 @@
         <v>140</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O3">
         <v>27667</v>
@@ -3929,7 +3927,7 @@
         <v>132</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O4">
         <v>6160</v>
@@ -3979,7 +3977,7 @@
         <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O5">
         <v>12540</v>
@@ -4029,7 +4027,7 @@
         <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O6">
         <v>41000</v>
@@ -4079,7 +4077,7 @@
         <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O7">
         <v>12100</v>
@@ -4129,7 +4127,7 @@
         <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O8">
         <v>24150</v>
@@ -4229,7 +4227,7 @@
         <v>132</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O10">
         <v>8923</v>
@@ -4279,7 +4277,7 @@
         <v>137</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O11">
         <v>6838</v>
@@ -4329,7 +4327,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O12">
         <v>34233</v>
@@ -4379,7 +4377,7 @@
         <v>132</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O13">
         <v>111833</v>
@@ -4429,7 +4427,7 @@
         <v>129</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O14">
         <v>9050</v>
@@ -4479,7 +4477,7 @@
         <v>137</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O15">
         <v>6250</v>
@@ -4529,7 +4527,7 @@
         <v>133</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O16">
         <v>1277</v>
@@ -4579,7 +4577,7 @@
         <v>137</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O17">
         <v>6607</v>
@@ -4629,7 +4627,7 @@
         <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O18">
         <v>4386</v>
@@ -4679,7 +4677,7 @@
         <v>137</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O19">
         <v>4940</v>
@@ -4729,7 +4727,7 @@
         <v>132</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O20">
         <v>12927</v>
@@ -4779,7 +4777,7 @@
         <v>129</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O21">
         <v>28417</v>
@@ -4829,7 +4827,7 @@
         <v>129</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O22">
         <v>5820</v>
@@ -4879,7 +4877,7 @@
         <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O23">
         <v>1727</v>
@@ -4929,7 +4927,7 @@
         <v>129</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O24">
         <v>11443</v>
@@ -4979,7 +4977,7 @@
         <v>132</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O25">
         <v>2428</v>
@@ -5029,7 +5027,7 @@
         <v>129</v>
       </c>
       <c r="N26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O26">
         <v>21650</v>
@@ -5079,7 +5077,7 @@
         <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O27">
         <v>7277</v>
@@ -5129,7 +5127,7 @@
         <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O28">
         <v>6073</v>
@@ -5179,7 +5177,7 @@
         <v>129</v>
       </c>
       <c r="N29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O29">
         <v>44350</v>
@@ -5229,7 +5227,7 @@
         <v>133</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O30">
         <v>55117</v>
@@ -5329,7 +5327,7 @@
         <v>132</v>
       </c>
       <c r="N32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O32">
         <v>6563</v>
@@ -5379,7 +5377,7 @@
         <v>132</v>
       </c>
       <c r="N33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O33">
         <v>9283</v>
@@ -5479,7 +5477,7 @@
         <v>129</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O35">
         <v>32917</v>
@@ -5529,7 +5527,7 @@
         <v>137</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O36">
         <v>3273</v>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -3544,7 +3544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
@@ -3566,6 +3566,7 @@
     <col width="9.5546875" bestFit="1" customWidth="1" min="13" max="14"/>
     <col width="13.44140625" bestFit="1" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" min="17" max="17"/>
+    <col width="13.44140625" bestFit="1" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -3651,6 +3652,11 @@
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
+          <t>3년이평최근</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
           <t>3년이격률최근</t>
         </is>
       </c>
@@ -3717,6 +3723,9 @@
         <v>121.28</v>
       </c>
       <c r="Q2" t="n">
+        <v>10520</v>
+      </c>
+      <c r="R2" t="n">
         <v>119.3</v>
       </c>
     </row>
@@ -3782,6 +3791,9 @@
         <v>149.1</v>
       </c>
       <c r="Q3" t="n">
+        <v>27116</v>
+      </c>
+      <c r="R3" t="n">
         <v>146.04</v>
       </c>
     </row>
@@ -3847,6 +3859,9 @@
         <v>122.4</v>
       </c>
       <c r="Q4" t="n">
+        <v>6080</v>
+      </c>
+      <c r="R4" t="n">
         <v>120.07</v>
       </c>
     </row>
@@ -3912,6 +3927,9 @@
         <v>126</v>
       </c>
       <c r="Q5" t="n">
+        <v>12456</v>
+      </c>
+      <c r="R5" t="n">
         <v>124.83</v>
       </c>
     </row>
@@ -3977,6 +3995,9 @@
         <v>128.78</v>
       </c>
       <c r="Q6" t="n">
+        <v>40700</v>
+      </c>
+      <c r="R6" t="n">
         <v>127.52</v>
       </c>
     </row>
@@ -4042,6 +4063,9 @@
         <v>124.38</v>
       </c>
       <c r="Q7" t="n">
+        <v>12283</v>
+      </c>
+      <c r="R7" t="n">
         <v>127</v>
       </c>
     </row>
@@ -4107,6 +4131,9 @@
         <v>138.3</v>
       </c>
       <c r="Q8" t="n">
+        <v>23766</v>
+      </c>
+      <c r="R8" t="n">
         <v>135.69</v>
       </c>
     </row>
@@ -4172,6 +4199,9 @@
         <v>127.97</v>
       </c>
       <c r="Q9" t="n">
+        <v>3528</v>
+      </c>
+      <c r="R9" t="n">
         <v>125.7</v>
       </c>
     </row>
@@ -4237,6 +4267,9 @@
         <v>115.43</v>
       </c>
       <c r="Q10" t="n">
+        <v>8840</v>
+      </c>
+      <c r="R10" t="n">
         <v>113.69</v>
       </c>
     </row>
@@ -4302,6 +4335,9 @@
         <v>117.57</v>
       </c>
       <c r="Q11" t="n">
+        <v>6871</v>
+      </c>
+      <c r="R11" t="n">
         <v>118.46</v>
       </c>
     </row>
@@ -4367,6 +4403,9 @@
         <v>117.72</v>
       </c>
       <c r="Q12" t="n">
+        <v>33633</v>
+      </c>
+      <c r="R12" t="n">
         <v>114.47</v>
       </c>
     </row>
@@ -4432,6 +4471,9 @@
         <v>117.94</v>
       </c>
       <c r="Q13" t="n">
+        <v>111266</v>
+      </c>
+      <c r="R13" t="n">
         <v>117.02</v>
       </c>
     </row>
@@ -4497,6 +4539,9 @@
         <v>117.68</v>
       </c>
       <c r="Q14" t="n">
+        <v>8966</v>
+      </c>
+      <c r="R14" t="n">
         <v>115.99</v>
       </c>
     </row>
@@ -4562,6 +4607,9 @@
         <v>126.72</v>
       </c>
       <c r="Q15" t="n">
+        <v>6253</v>
+      </c>
+      <c r="R15" t="n">
         <v>126.81</v>
       </c>
     </row>
@@ -4627,6 +4675,9 @@
         <v>108.88</v>
       </c>
       <c r="Q16" t="n">
+        <v>1273</v>
+      </c>
+      <c r="R16" t="n">
         <v>108.38</v>
       </c>
     </row>
@@ -4692,6 +4743,9 @@
         <v>117.76</v>
       </c>
       <c r="Q17" t="n">
+        <v>6516</v>
+      </c>
+      <c r="R17" t="n">
         <v>115.24</v>
       </c>
     </row>
@@ -4757,6 +4811,9 @@
         <v>124.02</v>
       </c>
       <c r="Q18" t="n">
+        <v>4496</v>
+      </c>
+      <c r="R18" t="n">
         <v>128.33</v>
       </c>
     </row>
@@ -4822,6 +4879,9 @@
         <v>127.33</v>
       </c>
       <c r="Q19" t="n">
+        <v>4946</v>
+      </c>
+      <c r="R19" t="n">
         <v>127.56</v>
       </c>
     </row>
@@ -4887,6 +4947,9 @@
         <v>119.52</v>
       </c>
       <c r="Q20" t="n">
+        <v>12810</v>
+      </c>
+      <c r="R20" t="n">
         <v>117.88</v>
       </c>
     </row>
@@ -4952,6 +5015,9 @@
         <v>123.34</v>
       </c>
       <c r="Q21" t="n">
+        <v>28100</v>
+      </c>
+      <c r="R21" t="n">
         <v>121.35</v>
       </c>
     </row>
@@ -5017,6 +5083,9 @@
         <v>127.49</v>
       </c>
       <c r="Q22" t="n">
+        <v>5720</v>
+      </c>
+      <c r="R22" t="n">
         <v>124.48</v>
       </c>
     </row>
@@ -5082,6 +5151,9 @@
         <v>142.76</v>
       </c>
       <c r="Q23" t="n">
+        <v>1750</v>
+      </c>
+      <c r="R23" t="n">
         <v>144.86</v>
       </c>
     </row>
@@ -5147,6 +5219,9 @@
         <v>114.48</v>
       </c>
       <c r="Q24" t="n">
+        <v>11360</v>
+      </c>
+      <c r="R24" t="n">
         <v>113.12</v>
       </c>
     </row>
@@ -5212,6 +5287,9 @@
         <v>108.72</v>
       </c>
       <c r="Q25" t="n">
+        <v>2418</v>
+      </c>
+      <c r="R25" t="n">
         <v>107.93</v>
       </c>
     </row>
@@ -5277,6 +5355,9 @@
         <v>106.93</v>
       </c>
       <c r="Q26" t="n">
+        <v>21716</v>
+      </c>
+      <c r="R26" t="n">
         <v>107.52</v>
       </c>
     </row>
@@ -5342,6 +5423,9 @@
         <v>115.57</v>
       </c>
       <c r="Q27" t="n">
+        <v>7223</v>
+      </c>
+      <c r="R27" t="n">
         <v>114.21</v>
       </c>
     </row>
@@ -5407,6 +5491,9 @@
         <v>125.3</v>
       </c>
       <c r="Q28" t="n">
+        <v>5910</v>
+      </c>
+      <c r="R28" t="n">
         <v>120.47</v>
       </c>
     </row>
@@ -5472,6 +5559,9 @@
         <v>112.06</v>
       </c>
       <c r="Q29" t="n">
+        <v>43683</v>
+      </c>
+      <c r="R29" t="n">
         <v>109.19</v>
       </c>
     </row>
@@ -5537,6 +5627,9 @@
         <v>113.58</v>
       </c>
       <c r="Q30" t="n">
+        <v>54483</v>
+      </c>
+      <c r="R30" t="n">
         <v>111.41</v>
       </c>
     </row>
@@ -5602,6 +5695,9 @@
         <v>107.46</v>
       </c>
       <c r="Q31" t="n">
+        <v>9180</v>
+      </c>
+      <c r="R31" t="n">
         <v>106.97</v>
       </c>
     </row>
@@ -5667,6 +5763,9 @@
         <v>107.11</v>
       </c>
       <c r="Q32" t="n">
+        <v>6576</v>
+      </c>
+      <c r="R32" t="n">
         <v>107.5</v>
       </c>
     </row>
@@ -5732,6 +5831,9 @@
         <v>105.57</v>
       </c>
       <c r="Q33" t="n">
+        <v>9400</v>
+      </c>
+      <c r="R33" t="n">
         <v>107.98</v>
       </c>
     </row>
@@ -5797,6 +5899,9 @@
         <v>102.68</v>
       </c>
       <c r="Q34" t="n">
+        <v>42783</v>
+      </c>
+      <c r="R34" t="n">
         <v>102.14</v>
       </c>
     </row>
@@ -5862,6 +5967,9 @@
         <v>104.35</v>
       </c>
       <c r="Q35" t="n">
+        <v>33016</v>
+      </c>
+      <c r="R35" t="n">
         <v>104.95</v>
       </c>
     </row>
@@ -5927,6 +6035,9 @@
         <v>102.49</v>
       </c>
       <c r="Q36" t="n">
+        <v>3295</v>
+      </c>
+      <c r="R36" t="n">
         <v>103.79</v>
       </c>
     </row>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -18,10 +18,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -138,7 +139,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,6 +194,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
@@ -3532,6 +3534,74 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="20" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>22450</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10307</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11543</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12984</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14425</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15249</v>
+      </c>
+      <c r="J44" t="n">
+        <v>17966</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20396</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22825</v>
+      </c>
+      <c r="M44" t="n">
+        <v>27231</v>
+      </c>
+      <c r="N44" t="n">
+        <v>30690</v>
+      </c>
+      <c r="O44" t="n">
+        <v>38554</v>
+      </c>
+      <c r="P44" t="n">
+        <v>43619</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>51278</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3274</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10102</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3544,7 +3614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
@@ -6039,6 +6109,74 @@
       </c>
       <c r="R36" t="n">
         <v>103.79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="20" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005420</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>코스모화학</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>22450</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10102</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>30690</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>30650</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10101</v>
+      </c>
+      <c r="K37" t="n">
+        <v>22982</v>
+      </c>
+      <c r="L37" t="n">
+        <v>97.68000000000001</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>19027</v>
+      </c>
+      <c r="P37" t="n">
+        <v>117.99</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>19027</v>
+      </c>
+      <c r="R37" t="n">
+        <v>117.99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주.xlsx
+++ b/Data/관심주.xlsx
@@ -3793,10 +3793,10 @@
         <v>121.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>10520</v>
+        <v>10736</v>
       </c>
       <c r="R2" t="n">
-        <v>119.3</v>
+        <v>122.94</v>
       </c>
     </row>
     <row r="3">
@@ -3861,10 +3861,10 @@
         <v>149.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>27116</v>
+        <v>27366</v>
       </c>
       <c r="R3" t="n">
-        <v>146.04</v>
+        <v>147.44</v>
       </c>
     </row>
     <row r="4">
@@ -3929,10 +3929,10 @@
         <v>122.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>6080</v>
+        <v>6086</v>
       </c>
       <c r="R4" t="n">
-        <v>120.07</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="5">
@@ -3997,10 +3997,10 @@
         <v>126</v>
       </c>
       <c r="Q5" t="n">
-        <v>12456</v>
+        <v>11840</v>
       </c>
       <c r="R5" t="n">
-        <v>124.83</v>
+        <v>115.71</v>
       </c>
     </row>
     <row r="6">
@@ -4065,10 +4065,10 @@
         <v>128.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>40700</v>
+        <v>40933</v>
       </c>
       <c r="R6" t="n">
-        <v>127.52</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7">
@@ -4133,10 +4133,10 @@
         <v>124.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>12283</v>
+        <v>13000</v>
       </c>
       <c r="R7" t="n">
-        <v>127</v>
+        <v>136.54</v>
       </c>
     </row>
     <row r="8">
@@ -4201,10 +4201,10 @@
         <v>138.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>23766</v>
+        <v>23066</v>
       </c>
       <c r="R8" t="n">
-        <v>135.69</v>
+        <v>130.71</v>
       </c>
     </row>
     <row r="9">
@@ -4269,10 +4269,10 @@
         <v>127.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="R9" t="n">
-        <v>125.7</v>
+        <v>124.62</v>
       </c>
     </row>
     <row r="10">
@@ -4337,10 +4337,10 @@
         <v>115.43</v>
       </c>
       <c r="Q10" t="n">
-        <v>8840</v>
+        <v>8746</v>
       </c>
       <c r="R10" t="n">
-        <v>113.69</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="11">
@@ -4405,10 +4405,10 @@
         <v>117.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>6871</v>
+        <v>6795</v>
       </c>
       <c r="R11" t="n">
-        <v>118.46</v>
+        <v>116.41</v>
       </c>
     </row>
     <row r="12">
@@ -4473,10 +4473,10 @@
         <v>117.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>33633</v>
+        <v>33366</v>
       </c>
       <c r="R12" t="n">
-        <v>114.47</v>
+        <v>112.99</v>
       </c>
     </row>
     <row r="13">
@@ -4541,10 +4541,10 @@
         <v>117.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>111266</v>
+        <v>114700</v>
       </c>
       <c r="R13" t="n">
-        <v>117.02</v>
+        <v>122.49</v>
       </c>
     </row>
     <row r="14">
@@ -4677,10 +4677,10 @@
         <v>126.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>6253</v>
+        <v>6146</v>
       </c>
       <c r="R15" t="n">
-        <v>126.81</v>
+        <v>123.81</v>
       </c>
     </row>
     <row r="16">
@@ -4745,10 +4745,10 @@
         <v>108.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="R16" t="n">
-        <v>108.38</v>
+        <v>109.38</v>
       </c>
     </row>
     <row r="17">
@@ -4813,10 +4813,10 @@
         <v>117.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>6516</v>
+        <v>6446</v>
       </c>
       <c r="R17" t="n">
-        <v>115.24</v>
+        <v>113.24</v>
       </c>
     </row>
     <row r="18">
@@ -4881,10 +4881,10 @@
         <v>124.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>4496</v>
+        <v>4449</v>
       </c>
       <c r="R18" t="n">
-        <v>128.33</v>
+        <v>126.53</v>
       </c>
     </row>
     <row r="19">
@@ -4949,10 +4949,10 @@
         <v>127.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>4946</v>
+        <v>4970</v>
       </c>
       <c r="R19" t="n">
-        <v>127.56</v>
+        <v>128.37</v>
       </c>
     </row>
     <row r="20">
@@ -5017,10 +5017,10 @@
         <v>119.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>12810</v>
+        <v>12510</v>
       </c>
       <c r="R20" t="n">
-        <v>117.88</v>
+        <v>113.51</v>
       </c>
     </row>
     <row r="21">
@@ -5085,10 +5085,10 @@
         <v>123.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>28100</v>
+        <v>27666</v>
       </c>
       <c r="R21" t="n">
-        <v>121.35</v>
+        <v>118.55</v>
       </c>
     </row>
     <row r="22">
@@ -5153,10 +5153,10 @@
         <v>127.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>5720</v>
+        <v>5636</v>
       </c>
       <c r="R22" t="n">
-        <v>124.48</v>
+        <v>121.88</v>
       </c>
     </row>
     <row r="23">
@@ -5221,10 +5221,10 @@
         <v>142.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>1750</v>
+        <v>1806</v>
       </c>
       <c r="R23" t="n">
-        <v>144.86</v>
+        <v>149.72</v>
       </c>
     </row>
     <row r="24">
@@ -5289,10 +5289,10 @@
         <v>114.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>11360</v>
+        <v>11160</v>
       </c>
       <c r="R24" t="n">
-        <v>113.12</v>
+        <v>109.77</v>
       </c>
     </row>
     <row r="25">
@@ -5357,10 +5357,10 @@
         <v>108.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>2418</v>
+        <v>2406</v>
       </c>
       <c r="R25" t="n">
-        <v>107.93</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="26">
@@ -5425,10 +5425,10 @@
         <v>106.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>21716</v>
+        <v>21500</v>
       </c>
       <c r="R26" t="n">
-        <v>107.52</v>
+        <v>105.58</v>
       </c>
     </row>
     <row r="27">
@@ -5493,10 +5493,10 @@
         <v>115.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>7223</v>
+        <v>7266</v>
       </c>
       <c r="R27" t="n">
-        <v>114.21</v>
+        <v>115.32</v>
       </c>
     </row>
     <row r="28">
@@ -5561,10 +5561,10 @@
         <v>125.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5910</v>
+        <v>5796</v>
       </c>
       <c r="R28" t="n">
-        <v>120.47</v>
+        <v>116.96</v>
       </c>
     </row>
     <row r="29">
@@ -5629,10 +5629,10 @@
         <v>112.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>43683</v>
+        <v>43283</v>
       </c>
       <c r="R29" t="n">
-        <v>109.19</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="30">
@@ -5697,10 +5697,10 @@
         <v>113.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>54483</v>
+        <v>53416</v>
       </c>
       <c r="R30" t="n">
-        <v>111.41</v>
+        <v>107.64</v>
       </c>
     </row>
     <row r="31">
@@ -5765,10 +5765,10 @@
         <v>107.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>9180</v>
+        <v>9256</v>
       </c>
       <c r="R31" t="n">
-        <v>106.97</v>
+        <v>108.57</v>
       </c>
     </row>
     <row r="32">
@@ -5833,10 +5833,10 @@
         <v>107.11</v>
       </c>
       <c r="Q32" t="n">
-        <v>6576</v>
+        <v>6803</v>
       </c>
       <c r="R32" t="n">
-        <v>107.5</v>
+        <v>113.91</v>
       </c>
     </row>
     <row r="33">
@@ -5901,10 +5901,10 @@
         <v>105.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>9400</v>
+        <v>9316</v>
       </c>
       <c r="R33" t="n">
-        <v>107.98</v>
+        <v>106.26</v>
       </c>
     </row>
     <row r="34">
@@ -5969,10 +5969,10 @@
         <v>102.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>42783</v>
+        <v>42650</v>
       </c>
       <c r="R34" t="n">
-        <v>102.14</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="35">
@@ -6037,10 +6037,10 @@
         <v>104.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>33016</v>
+        <v>33150</v>
       </c>
       <c r="R35" t="n">
-        <v>104.95</v>
+        <v>105.73</v>
       </c>
     </row>
     <row r="36">
@@ -6105,10 +6105,10 @@
         <v>102.49</v>
       </c>
       <c r="Q36" t="n">
-        <v>3295</v>
+        <v>3320</v>
       </c>
       <c r="R36" t="n">
-        <v>103.79</v>
+        <v>105.27</v>
       </c>
     </row>
     <row r="37">
@@ -6173,10 +6173,10 @@
         <v>117.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>19027</v>
+        <v>18743</v>
       </c>
       <c r="R37" t="n">
-        <v>117.99</v>
+        <v>115.24</v>
       </c>
     </row>
   </sheetData>
